--- a/template/PageLayout.xlsx
+++ b/template/PageLayout.xlsx
@@ -23,21 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="13">
-  <si>
-    <t>参照可能</t>
-    <rPh sb="0" eb="4">
-      <t>サンショウカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>参照のみ</t>
-    <rPh sb="0" eb="2">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -158,12 +144,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="0"/>
       <name val="Meiryo UI"/>
@@ -195,6 +175,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -521,64 +507,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1006,7 @@
   <dimension ref="A1:AG451"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I4"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1037,7 +1023,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="23" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1048,7 +1034,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
@@ -1059,7 +1045,7 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
@@ -1070,12 +1056,12 @@
       <c r="Z1" s="20"/>
       <c r="AA1" s="20"/>
       <c r="AB1" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC1" s="23"/>
       <c r="AD1" s="23"/>
       <c r="AE1" s="23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF1" s="23"/>
       <c r="AG1" s="23"/>
@@ -1109,12 +1095,12 @@
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
       <c r="AB2" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC2" s="23"/>
       <c r="AD2" s="23"/>
       <c r="AE2" s="23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF2" s="23"/>
       <c r="AG2" s="23"/>
@@ -1130,7 +1116,7 @@
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
@@ -1141,7 +1127,7 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
       <c r="S3" s="24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
@@ -1231,40 +1217,40 @@
     <row r="6" spans="1:33" ht="162" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="18" t="s">
-        <v>11</v>
+      <c r="H6" s="16" t="s">
+        <v>9</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
       <c r="AG6" s="11"/>
     </row>
     <row r="7" spans="1:33" ht="19" customHeight="1">
@@ -1276,9 +1262,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="H7" s="34"/>
-      <c r="I7" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="I7" s="8"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1313,9 +1297,7 @@
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1350,9 +1332,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1387,9 +1367,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1424,9 +1402,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="34"/>
-      <c r="I11" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1461,9 +1437,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1498,9 +1472,7 @@
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1535,9 +1507,7 @@
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="35"/>
-      <c r="I14" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1572,9 +1542,7 @@
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="34"/>
-      <c r="I15" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1609,9 +1577,7 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1646,9 +1612,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="34"/>
-      <c r="I17" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1683,9 +1647,7 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="35"/>
-      <c r="I18" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1720,9 +1682,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1757,9 +1717,7 @@
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="35"/>
-      <c r="I20" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1794,9 +1752,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1831,9 +1787,7 @@
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="35"/>
-      <c r="I22" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1868,9 +1822,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="34"/>
-      <c r="I23" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1905,9 +1857,7 @@
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1942,9 +1892,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="34"/>
-      <c r="I25" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1979,9 +1927,7 @@
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="35"/>
-      <c r="I26" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2016,9 +1962,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I27" s="7"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2053,9 +1997,7 @@
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="35"/>
-      <c r="I28" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I28" s="7"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2090,9 +2032,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I29" s="7"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2127,9 +2067,7 @@
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="35"/>
-      <c r="I30" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I30" s="7"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2164,9 +2102,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="34"/>
-      <c r="I31" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I31" s="7"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2201,9 +2137,7 @@
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
       <c r="H32" s="35"/>
-      <c r="I32" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I32" s="7"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2238,9 +2172,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="34"/>
-      <c r="I33" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I33" s="7"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2275,9 +2207,7 @@
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="35"/>
-      <c r="I34" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2312,9 +2242,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2349,9 +2277,7 @@
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
       <c r="H36" s="35"/>
-      <c r="I36" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2386,9 +2312,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2423,9 +2347,7 @@
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
       <c r="H38" s="35"/>
-      <c r="I38" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I38" s="7"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2460,9 +2382,7 @@
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="34"/>
-      <c r="I39" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I39" s="7"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2497,9 +2417,7 @@
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
       <c r="H40" s="35"/>
-      <c r="I40" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2534,9 +2452,7 @@
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
       <c r="H41" s="34"/>
-      <c r="I41" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2571,9 +2487,7 @@
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
       <c r="H42" s="35"/>
-      <c r="I42" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2608,9 +2522,7 @@
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2645,9 +2557,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
       <c r="H44" s="35"/>
-      <c r="I44" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2682,9 +2592,7 @@
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I45" s="7"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2719,9 +2627,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
       <c r="H46" s="35"/>
-      <c r="I46" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I46" s="7"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2756,9 +2662,7 @@
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
       <c r="H47" s="34"/>
-      <c r="I47" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2793,9 +2697,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
       <c r="H48" s="35"/>
-      <c r="I48" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I48" s="7"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2830,9 +2732,7 @@
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
       <c r="H49" s="34"/>
-      <c r="I49" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2867,9 +2767,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2904,9 +2802,7 @@
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="34"/>
-      <c r="I51" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2941,9 +2837,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I52" s="7"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2978,9 +2872,7 @@
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
       <c r="H53" s="34"/>
-      <c r="I53" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I53" s="7"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3015,9 +2907,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
       <c r="H54" s="35"/>
-      <c r="I54" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I54" s="7"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3052,9 +2942,7 @@
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
       <c r="H55" s="34"/>
-      <c r="I55" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I55" s="7"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3089,9 +2977,7 @@
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I56" s="7"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3126,9 +3012,7 @@
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
       <c r="H57" s="34"/>
-      <c r="I57" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I57" s="7"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -3163,9 +3047,7 @@
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I58" s="7"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3200,9 +3082,7 @@
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
       <c r="H59" s="34"/>
-      <c r="I59" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I59" s="7"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3237,9 +3117,7 @@
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I60" s="7"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -3274,9 +3152,7 @@
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="H61" s="34"/>
-      <c r="I61" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I61" s="7"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -3311,9 +3187,7 @@
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I62" s="7"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3348,9 +3222,7 @@
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="34"/>
-      <c r="I63" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I63" s="7"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -3385,9 +3257,7 @@
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I64" s="7"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3422,9 +3292,7 @@
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
       <c r="H65" s="34"/>
-      <c r="I65" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I65" s="7"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3459,9 +3327,7 @@
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I66" s="7"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3496,9 +3362,7 @@
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
       <c r="H67" s="34"/>
-      <c r="I67" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I67" s="7"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -3533,9 +3397,7 @@
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I68" s="7"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3570,9 +3432,7 @@
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
       <c r="H69" s="34"/>
-      <c r="I69" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I69" s="7"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3607,9 +3467,7 @@
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I70" s="7"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3644,9 +3502,7 @@
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
       <c r="H71" s="34"/>
-      <c r="I71" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I71" s="7"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3681,9 +3537,7 @@
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I72" s="7"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -3718,9 +3572,7 @@
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
       <c r="H73" s="34"/>
-      <c r="I73" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I73" s="7"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -3755,9 +3607,7 @@
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I74" s="7"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -3792,9 +3642,7 @@
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
       <c r="H75" s="34"/>
-      <c r="I75" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I75" s="7"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -3829,9 +3677,7 @@
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I76" s="7"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -3866,9 +3712,7 @@
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="34"/>
-      <c r="I77" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I77" s="7"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -3903,9 +3747,7 @@
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I78" s="7"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3940,9 +3782,7 @@
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="34"/>
-      <c r="I79" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I79" s="7"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -3977,9 +3817,7 @@
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I80" s="7"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -4014,9 +3852,7 @@
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="34"/>
-      <c r="I81" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I81" s="7"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -4051,9 +3887,7 @@
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I82" s="7"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -4088,9 +3922,7 @@
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
       <c r="H83" s="34"/>
-      <c r="I83" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I83" s="7"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -4125,9 +3957,7 @@
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I84" s="7"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -4162,9 +3992,7 @@
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
       <c r="H85" s="34"/>
-      <c r="I85" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I85" s="7"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -4199,9 +4027,7 @@
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I86" s="7"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -4236,9 +4062,7 @@
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
       <c r="H87" s="34"/>
-      <c r="I87" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I87" s="7"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -4273,9 +4097,7 @@
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I88" s="7"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -4310,9 +4132,7 @@
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="34"/>
-      <c r="I89" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I89" s="7"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -4347,9 +4167,7 @@
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I90" s="7"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -4384,9 +4202,7 @@
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
       <c r="H91" s="34"/>
-      <c r="I91" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I91" s="7"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -4421,9 +4237,7 @@
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I92" s="7"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -4458,9 +4272,7 @@
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
       <c r="H93" s="34"/>
-      <c r="I93" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I93" s="7"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -4495,9 +4307,7 @@
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I94" s="7"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -4532,9 +4342,7 @@
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
       <c r="H95" s="34"/>
-      <c r="I95" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I95" s="7"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -4569,9 +4377,7 @@
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I96" s="7"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -4606,9 +4412,7 @@
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
       <c r="H97" s="34"/>
-      <c r="I97" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I97" s="7"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -4643,9 +4447,7 @@
       <c r="F98" s="29"/>
       <c r="G98" s="29"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I98" s="7"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -4680,9 +4482,7 @@
       <c r="F99" s="29"/>
       <c r="G99" s="29"/>
       <c r="H99" s="34"/>
-      <c r="I99" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I99" s="7"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -4717,9 +4517,7 @@
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I100" s="7"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -4754,9 +4552,7 @@
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
       <c r="H101" s="34"/>
-      <c r="I101" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I101" s="7"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -4791,9 +4587,7 @@
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I102" s="7"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -4828,9 +4622,7 @@
       <c r="F103" s="29"/>
       <c r="G103" s="29"/>
       <c r="H103" s="34"/>
-      <c r="I103" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I103" s="7"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -4865,9 +4657,7 @@
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I104" s="7"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -4902,9 +4692,7 @@
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
       <c r="H105" s="34"/>
-      <c r="I105" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I105" s="7"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -4939,9 +4727,7 @@
       <c r="F106" s="29"/>
       <c r="G106" s="29"/>
       <c r="H106" s="35"/>
-      <c r="I106" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I106" s="7"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -4976,9 +4762,7 @@
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
       <c r="H107" s="34"/>
-      <c r="I107" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I107" s="7"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -5013,9 +4797,7 @@
       <c r="F108" s="29"/>
       <c r="G108" s="29"/>
       <c r="H108" s="35"/>
-      <c r="I108" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I108" s="7"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -5050,9 +4832,7 @@
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
       <c r="H109" s="34"/>
-      <c r="I109" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I109" s="7"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -5087,9 +4867,7 @@
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
       <c r="H110" s="35"/>
-      <c r="I110" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I110" s="7"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -5124,9 +4902,7 @@
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
       <c r="H111" s="34"/>
-      <c r="I111" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I111" s="7"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -5161,9 +4937,7 @@
       <c r="F112" s="29"/>
       <c r="G112" s="29"/>
       <c r="H112" s="35"/>
-      <c r="I112" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I112" s="7"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -5198,9 +4972,7 @@
       <c r="F113" s="29"/>
       <c r="G113" s="29"/>
       <c r="H113" s="34"/>
-      <c r="I113" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I113" s="7"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -5235,9 +5007,7 @@
       <c r="F114" s="29"/>
       <c r="G114" s="29"/>
       <c r="H114" s="35"/>
-      <c r="I114" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I114" s="7"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -5272,9 +5042,7 @@
       <c r="F115" s="29"/>
       <c r="G115" s="29"/>
       <c r="H115" s="34"/>
-      <c r="I115" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I115" s="7"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -5309,9 +5077,7 @@
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
       <c r="H116" s="35"/>
-      <c r="I116" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I116" s="7"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -5346,9 +5112,7 @@
       <c r="F117" s="29"/>
       <c r="G117" s="29"/>
       <c r="H117" s="34"/>
-      <c r="I117" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I117" s="7"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -5383,9 +5147,7 @@
       <c r="F118" s="29"/>
       <c r="G118" s="29"/>
       <c r="H118" s="35"/>
-      <c r="I118" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I118" s="7"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -5420,9 +5182,7 @@
       <c r="F119" s="29"/>
       <c r="G119" s="29"/>
       <c r="H119" s="34"/>
-      <c r="I119" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I119" s="7"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -5457,9 +5217,7 @@
       <c r="F120" s="29"/>
       <c r="G120" s="29"/>
       <c r="H120" s="35"/>
-      <c r="I120" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I120" s="7"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -5494,9 +5252,7 @@
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
       <c r="H121" s="34"/>
-      <c r="I121" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I121" s="7"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -5531,9 +5287,7 @@
       <c r="F122" s="29"/>
       <c r="G122" s="29"/>
       <c r="H122" s="35"/>
-      <c r="I122" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I122" s="7"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -5568,9 +5322,7 @@
       <c r="F123" s="29"/>
       <c r="G123" s="29"/>
       <c r="H123" s="34"/>
-      <c r="I123" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I123" s="7"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -5605,9 +5357,7 @@
       <c r="F124" s="29"/>
       <c r="G124" s="29"/>
       <c r="H124" s="35"/>
-      <c r="I124" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I124" s="7"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -5642,9 +5392,7 @@
       <c r="F125" s="29"/>
       <c r="G125" s="29"/>
       <c r="H125" s="34"/>
-      <c r="I125" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I125" s="7"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -5679,9 +5427,7 @@
       <c r="F126" s="29"/>
       <c r="G126" s="29"/>
       <c r="H126" s="35"/>
-      <c r="I126" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I126" s="7"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -5716,9 +5462,7 @@
       <c r="F127" s="29"/>
       <c r="G127" s="29"/>
       <c r="H127" s="34"/>
-      <c r="I127" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I127" s="7"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -5753,9 +5497,7 @@
       <c r="F128" s="29"/>
       <c r="G128" s="29"/>
       <c r="H128" s="35"/>
-      <c r="I128" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I128" s="7"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -5790,9 +5532,7 @@
       <c r="F129" s="29"/>
       <c r="G129" s="29"/>
       <c r="H129" s="34"/>
-      <c r="I129" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I129" s="7"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -5827,9 +5567,7 @@
       <c r="F130" s="29"/>
       <c r="G130" s="29"/>
       <c r="H130" s="35"/>
-      <c r="I130" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I130" s="7"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -5864,9 +5602,7 @@
       <c r="F131" s="29"/>
       <c r="G131" s="29"/>
       <c r="H131" s="34"/>
-      <c r="I131" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I131" s="7"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -5901,9 +5637,7 @@
       <c r="F132" s="29"/>
       <c r="G132" s="29"/>
       <c r="H132" s="35"/>
-      <c r="I132" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I132" s="7"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -5938,9 +5672,7 @@
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
       <c r="H133" s="34"/>
-      <c r="I133" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I133" s="7"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -5975,9 +5707,7 @@
       <c r="F134" s="29"/>
       <c r="G134" s="29"/>
       <c r="H134" s="35"/>
-      <c r="I134" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I134" s="7"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -6012,9 +5742,7 @@
       <c r="F135" s="29"/>
       <c r="G135" s="29"/>
       <c r="H135" s="34"/>
-      <c r="I135" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I135" s="7"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -6049,9 +5777,7 @@
       <c r="F136" s="29"/>
       <c r="G136" s="29"/>
       <c r="H136" s="35"/>
-      <c r="I136" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I136" s="7"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -6086,9 +5812,7 @@
       <c r="F137" s="29"/>
       <c r="G137" s="29"/>
       <c r="H137" s="34"/>
-      <c r="I137" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I137" s="7"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -6123,9 +5847,7 @@
       <c r="F138" s="29"/>
       <c r="G138" s="29"/>
       <c r="H138" s="35"/>
-      <c r="I138" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I138" s="7"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -6160,9 +5882,7 @@
       <c r="F139" s="29"/>
       <c r="G139" s="29"/>
       <c r="H139" s="34"/>
-      <c r="I139" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I139" s="7"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -6197,9 +5917,7 @@
       <c r="F140" s="29"/>
       <c r="G140" s="29"/>
       <c r="H140" s="35"/>
-      <c r="I140" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I140" s="7"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -6234,9 +5952,7 @@
       <c r="F141" s="29"/>
       <c r="G141" s="29"/>
       <c r="H141" s="34"/>
-      <c r="I141" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I141" s="7"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -6271,9 +5987,7 @@
       <c r="F142" s="29"/>
       <c r="G142" s="29"/>
       <c r="H142" s="35"/>
-      <c r="I142" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I142" s="7"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -6308,9 +6022,7 @@
       <c r="F143" s="29"/>
       <c r="G143" s="29"/>
       <c r="H143" s="34"/>
-      <c r="I143" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I143" s="7"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -6345,9 +6057,7 @@
       <c r="F144" s="29"/>
       <c r="G144" s="29"/>
       <c r="H144" s="35"/>
-      <c r="I144" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I144" s="7"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -6382,9 +6092,7 @@
       <c r="F145" s="29"/>
       <c r="G145" s="29"/>
       <c r="H145" s="34"/>
-      <c r="I145" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I145" s="7"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -6419,9 +6127,7 @@
       <c r="F146" s="29"/>
       <c r="G146" s="29"/>
       <c r="H146" s="35"/>
-      <c r="I146" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I146" s="7"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -6456,9 +6162,7 @@
       <c r="F147" s="29"/>
       <c r="G147" s="29"/>
       <c r="H147" s="34"/>
-      <c r="I147" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I147" s="7"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -6493,9 +6197,7 @@
       <c r="F148" s="29"/>
       <c r="G148" s="29"/>
       <c r="H148" s="35"/>
-      <c r="I148" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I148" s="7"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -6530,9 +6232,7 @@
       <c r="F149" s="29"/>
       <c r="G149" s="29"/>
       <c r="H149" s="34"/>
-      <c r="I149" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I149" s="7"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -6567,9 +6267,7 @@
       <c r="F150" s="29"/>
       <c r="G150" s="29"/>
       <c r="H150" s="35"/>
-      <c r="I150" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I150" s="7"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -6604,9 +6302,7 @@
       <c r="F151" s="29"/>
       <c r="G151" s="29"/>
       <c r="H151" s="34"/>
-      <c r="I151" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I151" s="7"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -6641,9 +6337,7 @@
       <c r="F152" s="29"/>
       <c r="G152" s="29"/>
       <c r="H152" s="35"/>
-      <c r="I152" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I152" s="7"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -6678,9 +6372,7 @@
       <c r="F153" s="29"/>
       <c r="G153" s="29"/>
       <c r="H153" s="34"/>
-      <c r="I153" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I153" s="7"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -6715,9 +6407,7 @@
       <c r="F154" s="29"/>
       <c r="G154" s="29"/>
       <c r="H154" s="35"/>
-      <c r="I154" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I154" s="7"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -6752,9 +6442,7 @@
       <c r="F155" s="29"/>
       <c r="G155" s="29"/>
       <c r="H155" s="34"/>
-      <c r="I155" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I155" s="7"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -6789,9 +6477,7 @@
       <c r="F156" s="29"/>
       <c r="G156" s="29"/>
       <c r="H156" s="35"/>
-      <c r="I156" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I156" s="7"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -6826,9 +6512,7 @@
       <c r="F157" s="29"/>
       <c r="G157" s="29"/>
       <c r="H157" s="34"/>
-      <c r="I157" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I157" s="7"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -6863,9 +6547,7 @@
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
       <c r="H158" s="35"/>
-      <c r="I158" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I158" s="7"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -6900,9 +6582,7 @@
       <c r="F159" s="29"/>
       <c r="G159" s="29"/>
       <c r="H159" s="34"/>
-      <c r="I159" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I159" s="7"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -6937,9 +6617,7 @@
       <c r="F160" s="29"/>
       <c r="G160" s="29"/>
       <c r="H160" s="35"/>
-      <c r="I160" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I160" s="7"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
@@ -6974,9 +6652,7 @@
       <c r="F161" s="29"/>
       <c r="G161" s="29"/>
       <c r="H161" s="34"/>
-      <c r="I161" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I161" s="7"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -7011,9 +6687,7 @@
       <c r="F162" s="29"/>
       <c r="G162" s="29"/>
       <c r="H162" s="35"/>
-      <c r="I162" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I162" s="7"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -7048,9 +6722,7 @@
       <c r="F163" s="29"/>
       <c r="G163" s="29"/>
       <c r="H163" s="34"/>
-      <c r="I163" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I163" s="7"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -7085,9 +6757,7 @@
       <c r="F164" s="29"/>
       <c r="G164" s="29"/>
       <c r="H164" s="35"/>
-      <c r="I164" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I164" s="7"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -7122,9 +6792,7 @@
       <c r="F165" s="29"/>
       <c r="G165" s="29"/>
       <c r="H165" s="34"/>
-      <c r="I165" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I165" s="7"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -7159,9 +6827,7 @@
       <c r="F166" s="29"/>
       <c r="G166" s="29"/>
       <c r="H166" s="35"/>
-      <c r="I166" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I166" s="7"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -7196,9 +6862,7 @@
       <c r="F167" s="29"/>
       <c r="G167" s="29"/>
       <c r="H167" s="34"/>
-      <c r="I167" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I167" s="7"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -7233,9 +6897,7 @@
       <c r="F168" s="29"/>
       <c r="G168" s="29"/>
       <c r="H168" s="35"/>
-      <c r="I168" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I168" s="7"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -7270,9 +6932,7 @@
       <c r="F169" s="29"/>
       <c r="G169" s="29"/>
       <c r="H169" s="34"/>
-      <c r="I169" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I169" s="7"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -7307,9 +6967,7 @@
       <c r="F170" s="29"/>
       <c r="G170" s="29"/>
       <c r="H170" s="35"/>
-      <c r="I170" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I170" s="7"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -7344,9 +7002,7 @@
       <c r="F171" s="29"/>
       <c r="G171" s="29"/>
       <c r="H171" s="34"/>
-      <c r="I171" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I171" s="7"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -7381,9 +7037,7 @@
       <c r="F172" s="29"/>
       <c r="G172" s="29"/>
       <c r="H172" s="35"/>
-      <c r="I172" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I172" s="7"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -7418,9 +7072,7 @@
       <c r="F173" s="29"/>
       <c r="G173" s="29"/>
       <c r="H173" s="34"/>
-      <c r="I173" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I173" s="7"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -7455,9 +7107,7 @@
       <c r="F174" s="29"/>
       <c r="G174" s="29"/>
       <c r="H174" s="35"/>
-      <c r="I174" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I174" s="7"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -7492,9 +7142,7 @@
       <c r="F175" s="29"/>
       <c r="G175" s="29"/>
       <c r="H175" s="34"/>
-      <c r="I175" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I175" s="7"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
@@ -7529,9 +7177,7 @@
       <c r="F176" s="29"/>
       <c r="G176" s="29"/>
       <c r="H176" s="35"/>
-      <c r="I176" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I176" s="7"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -7566,9 +7212,7 @@
       <c r="F177" s="29"/>
       <c r="G177" s="29"/>
       <c r="H177" s="34"/>
-      <c r="I177" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I177" s="7"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -7603,9 +7247,7 @@
       <c r="F178" s="29"/>
       <c r="G178" s="29"/>
       <c r="H178" s="35"/>
-      <c r="I178" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I178" s="7"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -7640,9 +7282,7 @@
       <c r="F179" s="29"/>
       <c r="G179" s="29"/>
       <c r="H179" s="34"/>
-      <c r="I179" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I179" s="7"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
@@ -7677,9 +7317,7 @@
       <c r="F180" s="29"/>
       <c r="G180" s="29"/>
       <c r="H180" s="35"/>
-      <c r="I180" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I180" s="7"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
@@ -7714,9 +7352,7 @@
       <c r="F181" s="29"/>
       <c r="G181" s="29"/>
       <c r="H181" s="34"/>
-      <c r="I181" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I181" s="7"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -7751,9 +7387,7 @@
       <c r="F182" s="29"/>
       <c r="G182" s="29"/>
       <c r="H182" s="35"/>
-      <c r="I182" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I182" s="7"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -7788,9 +7422,7 @@
       <c r="F183" s="29"/>
       <c r="G183" s="29"/>
       <c r="H183" s="34"/>
-      <c r="I183" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I183" s="7"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -7825,9 +7457,7 @@
       <c r="F184" s="29"/>
       <c r="G184" s="29"/>
       <c r="H184" s="35"/>
-      <c r="I184" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I184" s="7"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -7862,9 +7492,7 @@
       <c r="F185" s="29"/>
       <c r="G185" s="29"/>
       <c r="H185" s="34"/>
-      <c r="I185" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I185" s="7"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -7899,9 +7527,7 @@
       <c r="F186" s="29"/>
       <c r="G186" s="29"/>
       <c r="H186" s="35"/>
-      <c r="I186" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I186" s="7"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
@@ -7936,9 +7562,7 @@
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
       <c r="H187" s="34"/>
-      <c r="I187" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I187" s="7"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
@@ -7973,9 +7597,7 @@
       <c r="F188" s="29"/>
       <c r="G188" s="29"/>
       <c r="H188" s="35"/>
-      <c r="I188" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I188" s="7"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
@@ -8010,9 +7632,7 @@
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
       <c r="H189" s="34"/>
-      <c r="I189" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I189" s="7"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
@@ -8047,9 +7667,7 @@
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
       <c r="H190" s="35"/>
-      <c r="I190" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I190" s="7"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -8084,9 +7702,7 @@
       <c r="F191" s="29"/>
       <c r="G191" s="29"/>
       <c r="H191" s="34"/>
-      <c r="I191" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I191" s="7"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -8121,9 +7737,7 @@
       <c r="F192" s="29"/>
       <c r="G192" s="29"/>
       <c r="H192" s="35"/>
-      <c r="I192" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I192" s="7"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -8158,9 +7772,7 @@
       <c r="F193" s="29"/>
       <c r="G193" s="29"/>
       <c r="H193" s="34"/>
-      <c r="I193" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I193" s="7"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -8195,9 +7807,7 @@
       <c r="F194" s="29"/>
       <c r="G194" s="29"/>
       <c r="H194" s="35"/>
-      <c r="I194" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I194" s="7"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -8232,9 +7842,7 @@
       <c r="F195" s="29"/>
       <c r="G195" s="29"/>
       <c r="H195" s="34"/>
-      <c r="I195" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I195" s="7"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -8269,9 +7877,7 @@
       <c r="F196" s="29"/>
       <c r="G196" s="29"/>
       <c r="H196" s="35"/>
-      <c r="I196" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I196" s="7"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -8306,9 +7912,7 @@
       <c r="F197" s="29"/>
       <c r="G197" s="29"/>
       <c r="H197" s="34"/>
-      <c r="I197" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I197" s="7"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -8343,9 +7947,7 @@
       <c r="F198" s="29"/>
       <c r="G198" s="29"/>
       <c r="H198" s="35"/>
-      <c r="I198" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I198" s="7"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -8380,9 +7982,7 @@
       <c r="F199" s="29"/>
       <c r="G199" s="29"/>
       <c r="H199" s="34"/>
-      <c r="I199" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I199" s="7"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -8417,9 +8017,7 @@
       <c r="F200" s="29"/>
       <c r="G200" s="29"/>
       <c r="H200" s="35"/>
-      <c r="I200" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I200" s="7"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -8454,9 +8052,7 @@
       <c r="F201" s="29"/>
       <c r="G201" s="29"/>
       <c r="H201" s="34"/>
-      <c r="I201" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I201" s="7"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -8491,9 +8087,7 @@
       <c r="F202" s="29"/>
       <c r="G202" s="29"/>
       <c r="H202" s="35"/>
-      <c r="I202" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I202" s="7"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -8528,9 +8122,7 @@
       <c r="F203" s="29"/>
       <c r="G203" s="29"/>
       <c r="H203" s="34"/>
-      <c r="I203" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I203" s="7"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -8565,9 +8157,7 @@
       <c r="F204" s="29"/>
       <c r="G204" s="29"/>
       <c r="H204" s="35"/>
-      <c r="I204" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I204" s="7"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
@@ -8602,9 +8192,7 @@
       <c r="F205" s="29"/>
       <c r="G205" s="29"/>
       <c r="H205" s="34"/>
-      <c r="I205" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I205" s="7"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
@@ -8639,9 +8227,7 @@
       <c r="F206" s="29"/>
       <c r="G206" s="29"/>
       <c r="H206" s="35"/>
-      <c r="I206" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I206" s="7"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -8676,9 +8262,7 @@
       <c r="F207" s="29"/>
       <c r="G207" s="29"/>
       <c r="H207" s="34"/>
-      <c r="I207" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I207" s="7"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -8713,9 +8297,7 @@
       <c r="F208" s="29"/>
       <c r="G208" s="29"/>
       <c r="H208" s="35"/>
-      <c r="I208" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I208" s="7"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
@@ -8750,9 +8332,7 @@
       <c r="F209" s="29"/>
       <c r="G209" s="29"/>
       <c r="H209" s="34"/>
-      <c r="I209" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I209" s="7"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -8787,9 +8367,7 @@
       <c r="F210" s="29"/>
       <c r="G210" s="29"/>
       <c r="H210" s="35"/>
-      <c r="I210" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I210" s="7"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -8824,9 +8402,7 @@
       <c r="F211" s="29"/>
       <c r="G211" s="29"/>
       <c r="H211" s="34"/>
-      <c r="I211" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I211" s="7"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -8861,9 +8437,7 @@
       <c r="F212" s="29"/>
       <c r="G212" s="29"/>
       <c r="H212" s="35"/>
-      <c r="I212" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I212" s="7"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -8898,9 +8472,7 @@
       <c r="F213" s="29"/>
       <c r="G213" s="29"/>
       <c r="H213" s="34"/>
-      <c r="I213" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I213" s="7"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
@@ -8935,9 +8507,7 @@
       <c r="F214" s="29"/>
       <c r="G214" s="29"/>
       <c r="H214" s="35"/>
-      <c r="I214" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I214" s="7"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
@@ -8972,9 +8542,7 @@
       <c r="F215" s="29"/>
       <c r="G215" s="29"/>
       <c r="H215" s="34"/>
-      <c r="I215" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I215" s="7"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
@@ -9009,9 +8577,7 @@
       <c r="F216" s="29"/>
       <c r="G216" s="29"/>
       <c r="H216" s="35"/>
-      <c r="I216" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I216" s="7"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -9046,9 +8612,7 @@
       <c r="F217" s="29"/>
       <c r="G217" s="29"/>
       <c r="H217" s="34"/>
-      <c r="I217" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I217" s="7"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -9083,9 +8647,7 @@
       <c r="F218" s="29"/>
       <c r="G218" s="29"/>
       <c r="H218" s="35"/>
-      <c r="I218" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I218" s="7"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
@@ -9120,9 +8682,7 @@
       <c r="F219" s="29"/>
       <c r="G219" s="29"/>
       <c r="H219" s="34"/>
-      <c r="I219" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I219" s="7"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -9157,9 +8717,7 @@
       <c r="F220" s="29"/>
       <c r="G220" s="29"/>
       <c r="H220" s="35"/>
-      <c r="I220" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I220" s="7"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
@@ -9194,9 +8752,7 @@
       <c r="F221" s="29"/>
       <c r="G221" s="29"/>
       <c r="H221" s="34"/>
-      <c r="I221" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I221" s="7"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
@@ -9231,9 +8787,7 @@
       <c r="F222" s="29"/>
       <c r="G222" s="29"/>
       <c r="H222" s="35"/>
-      <c r="I222" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I222" s="7"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -9268,9 +8822,7 @@
       <c r="F223" s="29"/>
       <c r="G223" s="29"/>
       <c r="H223" s="34"/>
-      <c r="I223" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I223" s="7"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -9305,9 +8857,7 @@
       <c r="F224" s="29"/>
       <c r="G224" s="29"/>
       <c r="H224" s="35"/>
-      <c r="I224" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I224" s="7"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
@@ -9342,9 +8892,7 @@
       <c r="F225" s="29"/>
       <c r="G225" s="29"/>
       <c r="H225" s="34"/>
-      <c r="I225" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I225" s="7"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
@@ -9379,9 +8927,7 @@
       <c r="F226" s="29"/>
       <c r="G226" s="29"/>
       <c r="H226" s="35"/>
-      <c r="I226" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I226" s="7"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
@@ -9416,9 +8962,7 @@
       <c r="F227" s="29"/>
       <c r="G227" s="29"/>
       <c r="H227" s="34"/>
-      <c r="I227" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I227" s="7"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -9453,9 +8997,7 @@
       <c r="F228" s="29"/>
       <c r="G228" s="29"/>
       <c r="H228" s="35"/>
-      <c r="I228" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I228" s="7"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -9490,9 +9032,7 @@
       <c r="F229" s="29"/>
       <c r="G229" s="29"/>
       <c r="H229" s="34"/>
-      <c r="I229" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I229" s="7"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
@@ -9527,9 +9067,7 @@
       <c r="F230" s="29"/>
       <c r="G230" s="29"/>
       <c r="H230" s="35"/>
-      <c r="I230" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I230" s="7"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
@@ -9564,9 +9102,7 @@
       <c r="F231" s="29"/>
       <c r="G231" s="29"/>
       <c r="H231" s="34"/>
-      <c r="I231" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I231" s="7"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
@@ -9601,9 +9137,7 @@
       <c r="F232" s="29"/>
       <c r="G232" s="29"/>
       <c r="H232" s="35"/>
-      <c r="I232" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I232" s="7"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
@@ -9638,9 +9172,7 @@
       <c r="F233" s="29"/>
       <c r="G233" s="29"/>
       <c r="H233" s="34"/>
-      <c r="I233" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I233" s="7"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
@@ -9675,9 +9207,7 @@
       <c r="F234" s="29"/>
       <c r="G234" s="29"/>
       <c r="H234" s="35"/>
-      <c r="I234" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I234" s="7"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
@@ -9712,9 +9242,7 @@
       <c r="F235" s="29"/>
       <c r="G235" s="29"/>
       <c r="H235" s="34"/>
-      <c r="I235" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I235" s="7"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -9749,9 +9277,7 @@
       <c r="F236" s="29"/>
       <c r="G236" s="29"/>
       <c r="H236" s="35"/>
-      <c r="I236" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I236" s="7"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
@@ -9786,9 +9312,7 @@
       <c r="F237" s="29"/>
       <c r="G237" s="29"/>
       <c r="H237" s="34"/>
-      <c r="I237" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I237" s="7"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
@@ -9823,9 +9347,7 @@
       <c r="F238" s="29"/>
       <c r="G238" s="29"/>
       <c r="H238" s="35"/>
-      <c r="I238" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I238" s="7"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
@@ -9860,9 +9382,7 @@
       <c r="F239" s="29"/>
       <c r="G239" s="29"/>
       <c r="H239" s="34"/>
-      <c r="I239" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I239" s="7"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
@@ -9897,9 +9417,7 @@
       <c r="F240" s="29"/>
       <c r="G240" s="29"/>
       <c r="H240" s="35"/>
-      <c r="I240" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I240" s="7"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
@@ -9934,9 +9452,7 @@
       <c r="F241" s="29"/>
       <c r="G241" s="29"/>
       <c r="H241" s="34"/>
-      <c r="I241" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I241" s="7"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -9971,9 +9487,7 @@
       <c r="F242" s="29"/>
       <c r="G242" s="29"/>
       <c r="H242" s="35"/>
-      <c r="I242" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I242" s="7"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
@@ -10008,9 +9522,7 @@
       <c r="F243" s="29"/>
       <c r="G243" s="29"/>
       <c r="H243" s="34"/>
-      <c r="I243" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I243" s="7"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
@@ -10045,9 +9557,7 @@
       <c r="F244" s="29"/>
       <c r="G244" s="29"/>
       <c r="H244" s="35"/>
-      <c r="I244" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I244" s="7"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
@@ -10082,9 +9592,7 @@
       <c r="F245" s="29"/>
       <c r="G245" s="29"/>
       <c r="H245" s="34"/>
-      <c r="I245" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I245" s="7"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -10119,9 +9627,7 @@
       <c r="F246" s="29"/>
       <c r="G246" s="29"/>
       <c r="H246" s="35"/>
-      <c r="I246" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I246" s="7"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -10156,9 +9662,7 @@
       <c r="F247" s="29"/>
       <c r="G247" s="29"/>
       <c r="H247" s="34"/>
-      <c r="I247" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I247" s="7"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
@@ -10193,9 +9697,7 @@
       <c r="F248" s="29"/>
       <c r="G248" s="29"/>
       <c r="H248" s="35"/>
-      <c r="I248" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I248" s="7"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
@@ -10230,9 +9732,7 @@
       <c r="F249" s="29"/>
       <c r="G249" s="29"/>
       <c r="H249" s="34"/>
-      <c r="I249" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I249" s="7"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
@@ -10267,9 +9767,7 @@
       <c r="F250" s="29"/>
       <c r="G250" s="29"/>
       <c r="H250" s="35"/>
-      <c r="I250" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I250" s="7"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
@@ -10304,9 +9802,7 @@
       <c r="F251" s="29"/>
       <c r="G251" s="29"/>
       <c r="H251" s="34"/>
-      <c r="I251" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I251" s="7"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
@@ -10341,9 +9837,7 @@
       <c r="F252" s="29"/>
       <c r="G252" s="29"/>
       <c r="H252" s="35"/>
-      <c r="I252" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I252" s="7"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
@@ -10378,9 +9872,7 @@
       <c r="F253" s="29"/>
       <c r="G253" s="29"/>
       <c r="H253" s="34"/>
-      <c r="I253" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I253" s="7"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
@@ -10415,9 +9907,7 @@
       <c r="F254" s="29"/>
       <c r="G254" s="29"/>
       <c r="H254" s="35"/>
-      <c r="I254" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I254" s="7"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
@@ -10452,9 +9942,7 @@
       <c r="F255" s="29"/>
       <c r="G255" s="29"/>
       <c r="H255" s="34"/>
-      <c r="I255" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I255" s="7"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
@@ -10489,9 +9977,7 @@
       <c r="F256" s="29"/>
       <c r="G256" s="29"/>
       <c r="H256" s="35"/>
-      <c r="I256" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I256" s="7"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
@@ -10526,9 +10012,7 @@
       <c r="F257" s="29"/>
       <c r="G257" s="29"/>
       <c r="H257" s="34"/>
-      <c r="I257" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I257" s="7"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
@@ -10563,9 +10047,7 @@
       <c r="F258" s="29"/>
       <c r="G258" s="29"/>
       <c r="H258" s="35"/>
-      <c r="I258" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I258" s="7"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
@@ -10600,9 +10082,7 @@
       <c r="F259" s="29"/>
       <c r="G259" s="29"/>
       <c r="H259" s="34"/>
-      <c r="I259" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I259" s="7"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
@@ -10637,9 +10117,7 @@
       <c r="F260" s="29"/>
       <c r="G260" s="29"/>
       <c r="H260" s="35"/>
-      <c r="I260" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I260" s="7"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
@@ -10674,9 +10152,7 @@
       <c r="F261" s="29"/>
       <c r="G261" s="29"/>
       <c r="H261" s="34"/>
-      <c r="I261" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I261" s="7"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
@@ -10711,9 +10187,7 @@
       <c r="F262" s="29"/>
       <c r="G262" s="29"/>
       <c r="H262" s="35"/>
-      <c r="I262" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I262" s="7"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
@@ -10748,9 +10222,7 @@
       <c r="F263" s="29"/>
       <c r="G263" s="29"/>
       <c r="H263" s="34"/>
-      <c r="I263" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I263" s="7"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
@@ -10785,9 +10257,7 @@
       <c r="F264" s="29"/>
       <c r="G264" s="29"/>
       <c r="H264" s="35"/>
-      <c r="I264" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I264" s="7"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
@@ -10822,9 +10292,7 @@
       <c r="F265" s="29"/>
       <c r="G265" s="29"/>
       <c r="H265" s="34"/>
-      <c r="I265" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I265" s="7"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
@@ -10859,9 +10327,7 @@
       <c r="F266" s="29"/>
       <c r="G266" s="29"/>
       <c r="H266" s="35"/>
-      <c r="I266" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I266" s="7"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
@@ -10896,9 +10362,7 @@
       <c r="F267" s="29"/>
       <c r="G267" s="29"/>
       <c r="H267" s="34"/>
-      <c r="I267" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I267" s="7"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
@@ -10933,9 +10397,7 @@
       <c r="F268" s="29"/>
       <c r="G268" s="29"/>
       <c r="H268" s="35"/>
-      <c r="I268" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I268" s="7"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
@@ -10970,9 +10432,7 @@
       <c r="F269" s="29"/>
       <c r="G269" s="29"/>
       <c r="H269" s="34"/>
-      <c r="I269" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I269" s="7"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
@@ -11007,9 +10467,7 @@
       <c r="F270" s="29"/>
       <c r="G270" s="29"/>
       <c r="H270" s="35"/>
-      <c r="I270" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I270" s="7"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
@@ -11044,9 +10502,7 @@
       <c r="F271" s="29"/>
       <c r="G271" s="29"/>
       <c r="H271" s="34"/>
-      <c r="I271" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I271" s="7"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
@@ -11081,9 +10537,7 @@
       <c r="F272" s="29"/>
       <c r="G272" s="29"/>
       <c r="H272" s="35"/>
-      <c r="I272" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I272" s="7"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
@@ -11118,9 +10572,7 @@
       <c r="F273" s="29"/>
       <c r="G273" s="29"/>
       <c r="H273" s="34"/>
-      <c r="I273" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I273" s="7"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
@@ -11155,9 +10607,7 @@
       <c r="F274" s="29"/>
       <c r="G274" s="29"/>
       <c r="H274" s="35"/>
-      <c r="I274" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I274" s="7"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
@@ -11192,9 +10642,7 @@
       <c r="F275" s="29"/>
       <c r="G275" s="29"/>
       <c r="H275" s="34"/>
-      <c r="I275" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I275" s="7"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
@@ -11229,9 +10677,7 @@
       <c r="F276" s="29"/>
       <c r="G276" s="29"/>
       <c r="H276" s="35"/>
-      <c r="I276" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I276" s="7"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
@@ -11266,9 +10712,7 @@
       <c r="F277" s="29"/>
       <c r="G277" s="29"/>
       <c r="H277" s="34"/>
-      <c r="I277" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I277" s="7"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
@@ -11303,9 +10747,7 @@
       <c r="F278" s="29"/>
       <c r="G278" s="29"/>
       <c r="H278" s="35"/>
-      <c r="I278" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I278" s="7"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
@@ -11340,9 +10782,7 @@
       <c r="F279" s="29"/>
       <c r="G279" s="29"/>
       <c r="H279" s="34"/>
-      <c r="I279" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I279" s="7"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
@@ -11377,9 +10817,7 @@
       <c r="F280" s="29"/>
       <c r="G280" s="29"/>
       <c r="H280" s="35"/>
-      <c r="I280" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I280" s="7"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
@@ -11414,9 +10852,7 @@
       <c r="F281" s="29"/>
       <c r="G281" s="29"/>
       <c r="H281" s="34"/>
-      <c r="I281" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I281" s="7"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
@@ -11451,9 +10887,7 @@
       <c r="F282" s="29"/>
       <c r="G282" s="29"/>
       <c r="H282" s="35"/>
-      <c r="I282" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I282" s="7"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
@@ -11488,9 +10922,7 @@
       <c r="F283" s="29"/>
       <c r="G283" s="29"/>
       <c r="H283" s="34"/>
-      <c r="I283" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I283" s="7"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
@@ -11525,9 +10957,7 @@
       <c r="F284" s="29"/>
       <c r="G284" s="29"/>
       <c r="H284" s="35"/>
-      <c r="I284" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I284" s="7"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
@@ -11562,9 +10992,7 @@
       <c r="F285" s="29"/>
       <c r="G285" s="29"/>
       <c r="H285" s="34"/>
-      <c r="I285" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I285" s="7"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
@@ -11599,9 +11027,7 @@
       <c r="F286" s="29"/>
       <c r="G286" s="29"/>
       <c r="H286" s="35"/>
-      <c r="I286" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I286" s="7"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
@@ -11636,9 +11062,7 @@
       <c r="F287" s="29"/>
       <c r="G287" s="29"/>
       <c r="H287" s="34"/>
-      <c r="I287" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I287" s="7"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
@@ -11673,9 +11097,7 @@
       <c r="F288" s="29"/>
       <c r="G288" s="29"/>
       <c r="H288" s="35"/>
-      <c r="I288" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I288" s="7"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
@@ -11710,9 +11132,7 @@
       <c r="F289" s="29"/>
       <c r="G289" s="29"/>
       <c r="H289" s="34"/>
-      <c r="I289" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I289" s="7"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
@@ -11747,9 +11167,7 @@
       <c r="F290" s="29"/>
       <c r="G290" s="29"/>
       <c r="H290" s="35"/>
-      <c r="I290" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I290" s="7"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
@@ -11784,9 +11202,7 @@
       <c r="F291" s="29"/>
       <c r="G291" s="29"/>
       <c r="H291" s="34"/>
-      <c r="I291" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I291" s="7"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
@@ -11821,9 +11237,7 @@
       <c r="F292" s="29"/>
       <c r="G292" s="29"/>
       <c r="H292" s="35"/>
-      <c r="I292" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I292" s="7"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
@@ -11858,9 +11272,7 @@
       <c r="F293" s="29"/>
       <c r="G293" s="29"/>
       <c r="H293" s="34"/>
-      <c r="I293" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I293" s="7"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
@@ -11895,9 +11307,7 @@
       <c r="F294" s="29"/>
       <c r="G294" s="29"/>
       <c r="H294" s="35"/>
-      <c r="I294" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I294" s="7"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
@@ -11932,9 +11342,7 @@
       <c r="F295" s="29"/>
       <c r="G295" s="29"/>
       <c r="H295" s="34"/>
-      <c r="I295" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I295" s="7"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
@@ -11969,9 +11377,7 @@
       <c r="F296" s="29"/>
       <c r="G296" s="29"/>
       <c r="H296" s="35"/>
-      <c r="I296" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I296" s="7"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
@@ -12006,9 +11412,7 @@
       <c r="F297" s="29"/>
       <c r="G297" s="29"/>
       <c r="H297" s="34"/>
-      <c r="I297" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I297" s="7"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
@@ -12043,9 +11447,7 @@
       <c r="F298" s="29"/>
       <c r="G298" s="29"/>
       <c r="H298" s="35"/>
-      <c r="I298" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I298" s="7"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
@@ -12080,9 +11482,7 @@
       <c r="F299" s="29"/>
       <c r="G299" s="29"/>
       <c r="H299" s="34"/>
-      <c r="I299" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I299" s="7"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
@@ -12117,9 +11517,7 @@
       <c r="F300" s="29"/>
       <c r="G300" s="29"/>
       <c r="H300" s="35"/>
-      <c r="I300" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I300" s="7"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
@@ -12154,9 +11552,7 @@
       <c r="F301" s="29"/>
       <c r="G301" s="29"/>
       <c r="H301" s="34"/>
-      <c r="I301" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I301" s="7"/>
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
@@ -12191,9 +11587,7 @@
       <c r="F302" s="29"/>
       <c r="G302" s="29"/>
       <c r="H302" s="35"/>
-      <c r="I302" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I302" s="7"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
@@ -12228,9 +11622,7 @@
       <c r="F303" s="29"/>
       <c r="G303" s="29"/>
       <c r="H303" s="34"/>
-      <c r="I303" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I303" s="7"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
@@ -12265,9 +11657,7 @@
       <c r="F304" s="29"/>
       <c r="G304" s="29"/>
       <c r="H304" s="35"/>
-      <c r="I304" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I304" s="7"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
@@ -12302,9 +11692,7 @@
       <c r="F305" s="29"/>
       <c r="G305" s="29"/>
       <c r="H305" s="34"/>
-      <c r="I305" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I305" s="7"/>
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
@@ -12339,9 +11727,7 @@
       <c r="F306" s="29"/>
       <c r="G306" s="29"/>
       <c r="H306" s="35"/>
-      <c r="I306" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I306" s="7"/>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
@@ -12376,9 +11762,7 @@
       <c r="F307" s="29"/>
       <c r="G307" s="29"/>
       <c r="H307" s="34"/>
-      <c r="I307" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I307" s="7"/>
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
@@ -12413,9 +11797,7 @@
       <c r="F308" s="29"/>
       <c r="G308" s="29"/>
       <c r="H308" s="35"/>
-      <c r="I308" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I308" s="7"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
@@ -12450,9 +11832,7 @@
       <c r="F309" s="29"/>
       <c r="G309" s="29"/>
       <c r="H309" s="34"/>
-      <c r="I309" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I309" s="7"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
@@ -12487,9 +11867,7 @@
       <c r="F310" s="29"/>
       <c r="G310" s="29"/>
       <c r="H310" s="35"/>
-      <c r="I310" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I310" s="7"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
@@ -12524,9 +11902,7 @@
       <c r="F311" s="29"/>
       <c r="G311" s="29"/>
       <c r="H311" s="34"/>
-      <c r="I311" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I311" s="7"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
@@ -12561,9 +11937,7 @@
       <c r="F312" s="29"/>
       <c r="G312" s="29"/>
       <c r="H312" s="35"/>
-      <c r="I312" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I312" s="7"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
@@ -12598,9 +11972,7 @@
       <c r="F313" s="29"/>
       <c r="G313" s="29"/>
       <c r="H313" s="34"/>
-      <c r="I313" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I313" s="7"/>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
@@ -12635,9 +12007,7 @@
       <c r="F314" s="29"/>
       <c r="G314" s="29"/>
       <c r="H314" s="35"/>
-      <c r="I314" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I314" s="7"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
@@ -12672,9 +12042,7 @@
       <c r="F315" s="29"/>
       <c r="G315" s="29"/>
       <c r="H315" s="34"/>
-      <c r="I315" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I315" s="7"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
@@ -12709,9 +12077,7 @@
       <c r="F316" s="29"/>
       <c r="G316" s="29"/>
       <c r="H316" s="35"/>
-      <c r="I316" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I316" s="7"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
@@ -12746,9 +12112,7 @@
       <c r="F317" s="29"/>
       <c r="G317" s="29"/>
       <c r="H317" s="34"/>
-      <c r="I317" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I317" s="7"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
@@ -12783,9 +12147,7 @@
       <c r="F318" s="29"/>
       <c r="G318" s="29"/>
       <c r="H318" s="35"/>
-      <c r="I318" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I318" s="7"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
@@ -12820,9 +12182,7 @@
       <c r="F319" s="29"/>
       <c r="G319" s="29"/>
       <c r="H319" s="34"/>
-      <c r="I319" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I319" s="7"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -12857,9 +12217,7 @@
       <c r="F320" s="29"/>
       <c r="G320" s="29"/>
       <c r="H320" s="35"/>
-      <c r="I320" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I320" s="7"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -12894,9 +12252,7 @@
       <c r="F321" s="29"/>
       <c r="G321" s="29"/>
       <c r="H321" s="34"/>
-      <c r="I321" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I321" s="7"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
@@ -12931,9 +12287,7 @@
       <c r="F322" s="29"/>
       <c r="G322" s="29"/>
       <c r="H322" s="35"/>
-      <c r="I322" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I322" s="7"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
@@ -12968,9 +12322,7 @@
       <c r="F323" s="29"/>
       <c r="G323" s="29"/>
       <c r="H323" s="34"/>
-      <c r="I323" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I323" s="7"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
@@ -13005,9 +12357,7 @@
       <c r="F324" s="29"/>
       <c r="G324" s="29"/>
       <c r="H324" s="35"/>
-      <c r="I324" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I324" s="7"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
@@ -13042,9 +12392,7 @@
       <c r="F325" s="29"/>
       <c r="G325" s="29"/>
       <c r="H325" s="34"/>
-      <c r="I325" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I325" s="7"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
@@ -13079,9 +12427,7 @@
       <c r="F326" s="29"/>
       <c r="G326" s="29"/>
       <c r="H326" s="35"/>
-      <c r="I326" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I326" s="7"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
@@ -13116,9 +12462,7 @@
       <c r="F327" s="29"/>
       <c r="G327" s="29"/>
       <c r="H327" s="34"/>
-      <c r="I327" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I327" s="7"/>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
@@ -13153,9 +12497,7 @@
       <c r="F328" s="29"/>
       <c r="G328" s="29"/>
       <c r="H328" s="35"/>
-      <c r="I328" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I328" s="7"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
@@ -13190,9 +12532,7 @@
       <c r="F329" s="29"/>
       <c r="G329" s="29"/>
       <c r="H329" s="34"/>
-      <c r="I329" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I329" s="7"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
@@ -13227,9 +12567,7 @@
       <c r="F330" s="29"/>
       <c r="G330" s="29"/>
       <c r="H330" s="35"/>
-      <c r="I330" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I330" s="7"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
@@ -13264,9 +12602,7 @@
       <c r="F331" s="29"/>
       <c r="G331" s="29"/>
       <c r="H331" s="34"/>
-      <c r="I331" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I331" s="7"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
@@ -13301,9 +12637,7 @@
       <c r="F332" s="29"/>
       <c r="G332" s="29"/>
       <c r="H332" s="35"/>
-      <c r="I332" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I332" s="7"/>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
@@ -13338,9 +12672,7 @@
       <c r="F333" s="29"/>
       <c r="G333" s="29"/>
       <c r="H333" s="34"/>
-      <c r="I333" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I333" s="7"/>
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
@@ -13375,9 +12707,7 @@
       <c r="F334" s="29"/>
       <c r="G334" s="29"/>
       <c r="H334" s="35"/>
-      <c r="I334" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I334" s="7"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
@@ -13412,9 +12742,7 @@
       <c r="F335" s="29"/>
       <c r="G335" s="29"/>
       <c r="H335" s="34"/>
-      <c r="I335" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I335" s="7"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
@@ -13449,9 +12777,7 @@
       <c r="F336" s="29"/>
       <c r="G336" s="29"/>
       <c r="H336" s="35"/>
-      <c r="I336" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I336" s="7"/>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
@@ -13486,9 +12812,7 @@
       <c r="F337" s="29"/>
       <c r="G337" s="29"/>
       <c r="H337" s="34"/>
-      <c r="I337" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I337" s="7"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
@@ -13523,9 +12847,7 @@
       <c r="F338" s="29"/>
       <c r="G338" s="29"/>
       <c r="H338" s="35"/>
-      <c r="I338" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I338" s="7"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
@@ -13560,9 +12882,7 @@
       <c r="F339" s="29"/>
       <c r="G339" s="29"/>
       <c r="H339" s="34"/>
-      <c r="I339" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I339" s="7"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
@@ -13597,9 +12917,7 @@
       <c r="F340" s="29"/>
       <c r="G340" s="29"/>
       <c r="H340" s="35"/>
-      <c r="I340" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I340" s="7"/>
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
@@ -13634,9 +12952,7 @@
       <c r="F341" s="29"/>
       <c r="G341" s="29"/>
       <c r="H341" s="34"/>
-      <c r="I341" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I341" s="7"/>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
@@ -13671,9 +12987,7 @@
       <c r="F342" s="29"/>
       <c r="G342" s="29"/>
       <c r="H342" s="35"/>
-      <c r="I342" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I342" s="7"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
@@ -13708,9 +13022,7 @@
       <c r="F343" s="29"/>
       <c r="G343" s="29"/>
       <c r="H343" s="34"/>
-      <c r="I343" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I343" s="7"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
@@ -13745,9 +13057,7 @@
       <c r="F344" s="29"/>
       <c r="G344" s="29"/>
       <c r="H344" s="35"/>
-      <c r="I344" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I344" s="7"/>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
@@ -13782,9 +13092,7 @@
       <c r="F345" s="29"/>
       <c r="G345" s="29"/>
       <c r="H345" s="34"/>
-      <c r="I345" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I345" s="7"/>
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
@@ -13819,9 +13127,7 @@
       <c r="F346" s="29"/>
       <c r="G346" s="29"/>
       <c r="H346" s="35"/>
-      <c r="I346" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I346" s="7"/>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
@@ -13856,9 +13162,7 @@
       <c r="F347" s="29"/>
       <c r="G347" s="29"/>
       <c r="H347" s="34"/>
-      <c r="I347" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I347" s="7"/>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
@@ -13893,9 +13197,7 @@
       <c r="F348" s="29"/>
       <c r="G348" s="29"/>
       <c r="H348" s="35"/>
-      <c r="I348" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I348" s="7"/>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
@@ -13930,9 +13232,7 @@
       <c r="F349" s="29"/>
       <c r="G349" s="29"/>
       <c r="H349" s="34"/>
-      <c r="I349" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I349" s="7"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
@@ -13967,9 +13267,7 @@
       <c r="F350" s="29"/>
       <c r="G350" s="29"/>
       <c r="H350" s="35"/>
-      <c r="I350" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I350" s="7"/>
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
@@ -14004,9 +13302,7 @@
       <c r="F351" s="29"/>
       <c r="G351" s="29"/>
       <c r="H351" s="34"/>
-      <c r="I351" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I351" s="7"/>
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
@@ -14041,9 +13337,7 @@
       <c r="F352" s="29"/>
       <c r="G352" s="29"/>
       <c r="H352" s="35"/>
-      <c r="I352" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I352" s="7"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
@@ -14078,9 +13372,7 @@
       <c r="F353" s="29"/>
       <c r="G353" s="29"/>
       <c r="H353" s="34"/>
-      <c r="I353" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I353" s="7"/>
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
@@ -14115,9 +13407,7 @@
       <c r="F354" s="29"/>
       <c r="G354" s="29"/>
       <c r="H354" s="35"/>
-      <c r="I354" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I354" s="7"/>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
@@ -14152,9 +13442,7 @@
       <c r="F355" s="29"/>
       <c r="G355" s="29"/>
       <c r="H355" s="34"/>
-      <c r="I355" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I355" s="7"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
@@ -14189,9 +13477,7 @@
       <c r="F356" s="29"/>
       <c r="G356" s="29"/>
       <c r="H356" s="35"/>
-      <c r="I356" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I356" s="7"/>
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
@@ -14226,9 +13512,7 @@
       <c r="F357" s="29"/>
       <c r="G357" s="29"/>
       <c r="H357" s="34"/>
-      <c r="I357" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I357" s="7"/>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
@@ -14263,9 +13547,7 @@
       <c r="F358" s="29"/>
       <c r="G358" s="29"/>
       <c r="H358" s="35"/>
-      <c r="I358" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I358" s="7"/>
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
@@ -14300,9 +13582,7 @@
       <c r="F359" s="29"/>
       <c r="G359" s="29"/>
       <c r="H359" s="34"/>
-      <c r="I359" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I359" s="7"/>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
@@ -14337,9 +13617,7 @@
       <c r="F360" s="29"/>
       <c r="G360" s="29"/>
       <c r="H360" s="35"/>
-      <c r="I360" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I360" s="7"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
@@ -14374,9 +13652,7 @@
       <c r="F361" s="29"/>
       <c r="G361" s="29"/>
       <c r="H361" s="34"/>
-      <c r="I361" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I361" s="7"/>
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
@@ -14411,9 +13687,7 @@
       <c r="F362" s="29"/>
       <c r="G362" s="29"/>
       <c r="H362" s="35"/>
-      <c r="I362" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I362" s="7"/>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
@@ -14448,9 +13722,7 @@
       <c r="F363" s="29"/>
       <c r="G363" s="29"/>
       <c r="H363" s="34"/>
-      <c r="I363" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I363" s="7"/>
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
@@ -14485,9 +13757,7 @@
       <c r="F364" s="29"/>
       <c r="G364" s="29"/>
       <c r="H364" s="35"/>
-      <c r="I364" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I364" s="7"/>
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
@@ -14522,9 +13792,7 @@
       <c r="F365" s="29"/>
       <c r="G365" s="29"/>
       <c r="H365" s="34"/>
-      <c r="I365" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I365" s="7"/>
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
@@ -14559,9 +13827,7 @@
       <c r="F366" s="29"/>
       <c r="G366" s="29"/>
       <c r="H366" s="35"/>
-      <c r="I366" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I366" s="7"/>
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
@@ -14596,9 +13862,7 @@
       <c r="F367" s="29"/>
       <c r="G367" s="29"/>
       <c r="H367" s="34"/>
-      <c r="I367" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I367" s="7"/>
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
@@ -14633,9 +13897,7 @@
       <c r="F368" s="29"/>
       <c r="G368" s="29"/>
       <c r="H368" s="35"/>
-      <c r="I368" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I368" s="7"/>
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
       <c r="L368" s="1"/>
@@ -14670,9 +13932,7 @@
       <c r="F369" s="29"/>
       <c r="G369" s="29"/>
       <c r="H369" s="34"/>
-      <c r="I369" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I369" s="7"/>
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
       <c r="L369" s="1"/>
@@ -14707,9 +13967,7 @@
       <c r="F370" s="29"/>
       <c r="G370" s="29"/>
       <c r="H370" s="35"/>
-      <c r="I370" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I370" s="7"/>
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
       <c r="L370" s="1"/>
@@ -14744,9 +14002,7 @@
       <c r="F371" s="29"/>
       <c r="G371" s="29"/>
       <c r="H371" s="34"/>
-      <c r="I371" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I371" s="7"/>
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
       <c r="L371" s="1"/>
@@ -14781,9 +14037,7 @@
       <c r="F372" s="29"/>
       <c r="G372" s="29"/>
       <c r="H372" s="35"/>
-      <c r="I372" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I372" s="7"/>
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
       <c r="L372" s="1"/>
@@ -14818,9 +14072,7 @@
       <c r="F373" s="29"/>
       <c r="G373" s="29"/>
       <c r="H373" s="34"/>
-      <c r="I373" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I373" s="7"/>
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
       <c r="L373" s="1"/>
@@ -14855,9 +14107,7 @@
       <c r="F374" s="29"/>
       <c r="G374" s="29"/>
       <c r="H374" s="35"/>
-      <c r="I374" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I374" s="7"/>
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
       <c r="L374" s="1"/>
@@ -14892,9 +14142,7 @@
       <c r="F375" s="29"/>
       <c r="G375" s="29"/>
       <c r="H375" s="34"/>
-      <c r="I375" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I375" s="7"/>
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
       <c r="L375" s="1"/>
@@ -14929,9 +14177,7 @@
       <c r="F376" s="29"/>
       <c r="G376" s="29"/>
       <c r="H376" s="35"/>
-      <c r="I376" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I376" s="7"/>
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
       <c r="L376" s="1"/>
@@ -14966,9 +14212,7 @@
       <c r="F377" s="29"/>
       <c r="G377" s="29"/>
       <c r="H377" s="34"/>
-      <c r="I377" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I377" s="7"/>
       <c r="J377" s="1"/>
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
@@ -15003,9 +14247,7 @@
       <c r="F378" s="29"/>
       <c r="G378" s="29"/>
       <c r="H378" s="35"/>
-      <c r="I378" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I378" s="7"/>
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
       <c r="L378" s="1"/>
@@ -15040,9 +14282,7 @@
       <c r="F379" s="29"/>
       <c r="G379" s="29"/>
       <c r="H379" s="34"/>
-      <c r="I379" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I379" s="7"/>
       <c r="J379" s="1"/>
       <c r="K379" s="1"/>
       <c r="L379" s="1"/>
@@ -15077,9 +14317,7 @@
       <c r="F380" s="29"/>
       <c r="G380" s="29"/>
       <c r="H380" s="35"/>
-      <c r="I380" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I380" s="7"/>
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
       <c r="L380" s="1"/>
@@ -15114,9 +14352,7 @@
       <c r="F381" s="29"/>
       <c r="G381" s="29"/>
       <c r="H381" s="34"/>
-      <c r="I381" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I381" s="7"/>
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
       <c r="L381" s="1"/>
@@ -15151,9 +14387,7 @@
       <c r="F382" s="29"/>
       <c r="G382" s="29"/>
       <c r="H382" s="35"/>
-      <c r="I382" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I382" s="7"/>
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
       <c r="L382" s="1"/>
@@ -15188,9 +14422,7 @@
       <c r="F383" s="29"/>
       <c r="G383" s="29"/>
       <c r="H383" s="34"/>
-      <c r="I383" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I383" s="7"/>
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
       <c r="L383" s="1"/>
@@ -15225,9 +14457,7 @@
       <c r="F384" s="29"/>
       <c r="G384" s="29"/>
       <c r="H384" s="35"/>
-      <c r="I384" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I384" s="7"/>
       <c r="J384" s="1"/>
       <c r="K384" s="1"/>
       <c r="L384" s="1"/>
@@ -15262,9 +14492,7 @@
       <c r="F385" s="29"/>
       <c r="G385" s="29"/>
       <c r="H385" s="34"/>
-      <c r="I385" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I385" s="7"/>
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
       <c r="L385" s="1"/>
@@ -15299,9 +14527,7 @@
       <c r="F386" s="29"/>
       <c r="G386" s="29"/>
       <c r="H386" s="35"/>
-      <c r="I386" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I386" s="7"/>
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
       <c r="L386" s="1"/>
@@ -15336,9 +14562,7 @@
       <c r="F387" s="29"/>
       <c r="G387" s="29"/>
       <c r="H387" s="34"/>
-      <c r="I387" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I387" s="7"/>
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
@@ -15373,9 +14597,7 @@
       <c r="F388" s="29"/>
       <c r="G388" s="29"/>
       <c r="H388" s="35"/>
-      <c r="I388" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I388" s="7"/>
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
       <c r="L388" s="1"/>
@@ -15410,9 +14632,7 @@
       <c r="F389" s="29"/>
       <c r="G389" s="29"/>
       <c r="H389" s="34"/>
-      <c r="I389" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I389" s="7"/>
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
       <c r="L389" s="1"/>
@@ -15447,9 +14667,7 @@
       <c r="F390" s="29"/>
       <c r="G390" s="29"/>
       <c r="H390" s="35"/>
-      <c r="I390" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I390" s="7"/>
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
       <c r="L390" s="1"/>
@@ -15484,9 +14702,7 @@
       <c r="F391" s="29"/>
       <c r="G391" s="29"/>
       <c r="H391" s="34"/>
-      <c r="I391" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I391" s="7"/>
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
@@ -15521,9 +14737,7 @@
       <c r="F392" s="29"/>
       <c r="G392" s="29"/>
       <c r="H392" s="35"/>
-      <c r="I392" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I392" s="7"/>
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
       <c r="L392" s="1"/>
@@ -15558,9 +14772,7 @@
       <c r="F393" s="29"/>
       <c r="G393" s="29"/>
       <c r="H393" s="34"/>
-      <c r="I393" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I393" s="7"/>
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
       <c r="L393" s="1"/>
@@ -15595,9 +14807,7 @@
       <c r="F394" s="29"/>
       <c r="G394" s="29"/>
       <c r="H394" s="35"/>
-      <c r="I394" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I394" s="7"/>
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
       <c r="L394" s="1"/>
@@ -15632,9 +14842,7 @@
       <c r="F395" s="29"/>
       <c r="G395" s="29"/>
       <c r="H395" s="34"/>
-      <c r="I395" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I395" s="7"/>
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
       <c r="L395" s="1"/>
@@ -15669,9 +14877,7 @@
       <c r="F396" s="29"/>
       <c r="G396" s="29"/>
       <c r="H396" s="35"/>
-      <c r="I396" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I396" s="7"/>
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
       <c r="L396" s="1"/>
@@ -15706,9 +14912,7 @@
       <c r="F397" s="29"/>
       <c r="G397" s="29"/>
       <c r="H397" s="34"/>
-      <c r="I397" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I397" s="7"/>
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
       <c r="L397" s="1"/>
@@ -15743,9 +14947,7 @@
       <c r="F398" s="29"/>
       <c r="G398" s="29"/>
       <c r="H398" s="35"/>
-      <c r="I398" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I398" s="7"/>
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
@@ -15780,9 +14982,7 @@
       <c r="F399" s="29"/>
       <c r="G399" s="29"/>
       <c r="H399" s="34"/>
-      <c r="I399" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I399" s="7"/>
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
@@ -15817,9 +15017,7 @@
       <c r="F400" s="29"/>
       <c r="G400" s="29"/>
       <c r="H400" s="35"/>
-      <c r="I400" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I400" s="7"/>
       <c r="J400" s="1"/>
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
@@ -15854,9 +15052,7 @@
       <c r="F401" s="29"/>
       <c r="G401" s="29"/>
       <c r="H401" s="34"/>
-      <c r="I401" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I401" s="7"/>
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
       <c r="L401" s="1"/>
@@ -15891,9 +15087,7 @@
       <c r="F402" s="29"/>
       <c r="G402" s="29"/>
       <c r="H402" s="35"/>
-      <c r="I402" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I402" s="7"/>
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
       <c r="L402" s="1"/>
@@ -15928,9 +15122,7 @@
       <c r="F403" s="29"/>
       <c r="G403" s="29"/>
       <c r="H403" s="34"/>
-      <c r="I403" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I403" s="7"/>
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
       <c r="L403" s="1"/>
@@ -15965,9 +15157,7 @@
       <c r="F404" s="29"/>
       <c r="G404" s="29"/>
       <c r="H404" s="35"/>
-      <c r="I404" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I404" s="7"/>
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
       <c r="L404" s="1"/>
@@ -16002,9 +15192,7 @@
       <c r="F405" s="29"/>
       <c r="G405" s="29"/>
       <c r="H405" s="34"/>
-      <c r="I405" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I405" s="7"/>
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
       <c r="L405" s="1"/>
@@ -16039,9 +15227,7 @@
       <c r="F406" s="29"/>
       <c r="G406" s="29"/>
       <c r="H406" s="35"/>
-      <c r="I406" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I406" s="7"/>
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
       <c r="L406" s="1"/>
@@ -16076,9 +15262,7 @@
       <c r="F407" s="29"/>
       <c r="G407" s="29"/>
       <c r="H407" s="34"/>
-      <c r="I407" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I407" s="7"/>
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
@@ -16113,9 +15297,7 @@
       <c r="F408" s="29"/>
       <c r="G408" s="29"/>
       <c r="H408" s="35"/>
-      <c r="I408" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I408" s="7"/>
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
       <c r="L408" s="1"/>
@@ -16150,9 +15332,7 @@
       <c r="F409" s="29"/>
       <c r="G409" s="29"/>
       <c r="H409" s="34"/>
-      <c r="I409" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I409" s="7"/>
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
       <c r="L409" s="1"/>
@@ -16187,9 +15367,7 @@
       <c r="F410" s="29"/>
       <c r="G410" s="29"/>
       <c r="H410" s="35"/>
-      <c r="I410" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I410" s="7"/>
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
       <c r="L410" s="1"/>
@@ -16224,9 +15402,7 @@
       <c r="F411" s="29"/>
       <c r="G411" s="29"/>
       <c r="H411" s="34"/>
-      <c r="I411" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I411" s="7"/>
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
       <c r="L411" s="1"/>
@@ -16261,9 +15437,7 @@
       <c r="F412" s="29"/>
       <c r="G412" s="29"/>
       <c r="H412" s="35"/>
-      <c r="I412" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I412" s="7"/>
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
@@ -16298,9 +15472,7 @@
       <c r="F413" s="29"/>
       <c r="G413" s="29"/>
       <c r="H413" s="34"/>
-      <c r="I413" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I413" s="7"/>
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
       <c r="L413" s="1"/>
@@ -16335,9 +15507,7 @@
       <c r="F414" s="29"/>
       <c r="G414" s="29"/>
       <c r="H414" s="35"/>
-      <c r="I414" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I414" s="7"/>
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
       <c r="L414" s="1"/>
@@ -16372,9 +15542,7 @@
       <c r="F415" s="29"/>
       <c r="G415" s="29"/>
       <c r="H415" s="34"/>
-      <c r="I415" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I415" s="7"/>
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
       <c r="L415" s="1"/>
@@ -16409,9 +15577,7 @@
       <c r="F416" s="29"/>
       <c r="G416" s="29"/>
       <c r="H416" s="35"/>
-      <c r="I416" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I416" s="7"/>
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
       <c r="L416" s="1"/>
@@ -16446,9 +15612,7 @@
       <c r="F417" s="29"/>
       <c r="G417" s="29"/>
       <c r="H417" s="34"/>
-      <c r="I417" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I417" s="7"/>
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
       <c r="L417" s="1"/>
@@ -16483,9 +15647,7 @@
       <c r="F418" s="29"/>
       <c r="G418" s="29"/>
       <c r="H418" s="35"/>
-      <c r="I418" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I418" s="7"/>
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
       <c r="L418" s="1"/>
@@ -16520,9 +15682,7 @@
       <c r="F419" s="29"/>
       <c r="G419" s="29"/>
       <c r="H419" s="34"/>
-      <c r="I419" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I419" s="7"/>
       <c r="J419" s="1"/>
       <c r="K419" s="1"/>
       <c r="L419" s="1"/>
@@ -16557,9 +15717,7 @@
       <c r="F420" s="29"/>
       <c r="G420" s="29"/>
       <c r="H420" s="35"/>
-      <c r="I420" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I420" s="7"/>
       <c r="J420" s="1"/>
       <c r="K420" s="1"/>
       <c r="L420" s="1"/>
@@ -16594,9 +15752,7 @@
       <c r="F421" s="29"/>
       <c r="G421" s="29"/>
       <c r="H421" s="34"/>
-      <c r="I421" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I421" s="7"/>
       <c r="J421" s="1"/>
       <c r="K421" s="1"/>
       <c r="L421" s="1"/>
@@ -16631,9 +15787,7 @@
       <c r="F422" s="29"/>
       <c r="G422" s="29"/>
       <c r="H422" s="35"/>
-      <c r="I422" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I422" s="7"/>
       <c r="J422" s="1"/>
       <c r="K422" s="1"/>
       <c r="L422" s="1"/>
@@ -16668,9 +15822,7 @@
       <c r="F423" s="29"/>
       <c r="G423" s="29"/>
       <c r="H423" s="34"/>
-      <c r="I423" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I423" s="7"/>
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
       <c r="L423" s="1"/>
@@ -16705,9 +15857,7 @@
       <c r="F424" s="29"/>
       <c r="G424" s="29"/>
       <c r="H424" s="35"/>
-      <c r="I424" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I424" s="7"/>
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
       <c r="L424" s="1"/>
@@ -16742,9 +15892,7 @@
       <c r="F425" s="29"/>
       <c r="G425" s="29"/>
       <c r="H425" s="34"/>
-      <c r="I425" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I425" s="7"/>
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
       <c r="L425" s="1"/>
@@ -16779,9 +15927,7 @@
       <c r="F426" s="29"/>
       <c r="G426" s="29"/>
       <c r="H426" s="35"/>
-      <c r="I426" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I426" s="7"/>
       <c r="J426" s="1"/>
       <c r="K426" s="1"/>
       <c r="L426" s="1"/>
@@ -16816,9 +15962,7 @@
       <c r="F427" s="29"/>
       <c r="G427" s="29"/>
       <c r="H427" s="34"/>
-      <c r="I427" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I427" s="7"/>
       <c r="J427" s="1"/>
       <c r="K427" s="1"/>
       <c r="L427" s="1"/>
@@ -16853,9 +15997,7 @@
       <c r="F428" s="29"/>
       <c r="G428" s="29"/>
       <c r="H428" s="35"/>
-      <c r="I428" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I428" s="7"/>
       <c r="J428" s="1"/>
       <c r="K428" s="1"/>
       <c r="L428" s="1"/>
@@ -16890,9 +16032,7 @@
       <c r="F429" s="29"/>
       <c r="G429" s="29"/>
       <c r="H429" s="34"/>
-      <c r="I429" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I429" s="7"/>
       <c r="J429" s="1"/>
       <c r="K429" s="1"/>
       <c r="L429" s="1"/>
@@ -16927,9 +16067,7 @@
       <c r="F430" s="29"/>
       <c r="G430" s="29"/>
       <c r="H430" s="35"/>
-      <c r="I430" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I430" s="7"/>
       <c r="J430" s="1"/>
       <c r="K430" s="1"/>
       <c r="L430" s="1"/>
@@ -16964,9 +16102,7 @@
       <c r="F431" s="29"/>
       <c r="G431" s="29"/>
       <c r="H431" s="34"/>
-      <c r="I431" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I431" s="7"/>
       <c r="J431" s="1"/>
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
@@ -17001,9 +16137,7 @@
       <c r="F432" s="29"/>
       <c r="G432" s="29"/>
       <c r="H432" s="35"/>
-      <c r="I432" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I432" s="7"/>
       <c r="J432" s="1"/>
       <c r="K432" s="1"/>
       <c r="L432" s="1"/>
@@ -17038,9 +16172,7 @@
       <c r="F433" s="29"/>
       <c r="G433" s="29"/>
       <c r="H433" s="34"/>
-      <c r="I433" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I433" s="7"/>
       <c r="J433" s="1"/>
       <c r="K433" s="1"/>
       <c r="L433" s="1"/>
@@ -17075,9 +16207,7 @@
       <c r="F434" s="29"/>
       <c r="G434" s="29"/>
       <c r="H434" s="35"/>
-      <c r="I434" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I434" s="7"/>
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
@@ -17112,9 +16242,7 @@
       <c r="F435" s="29"/>
       <c r="G435" s="29"/>
       <c r="H435" s="34"/>
-      <c r="I435" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I435" s="7"/>
       <c r="J435" s="1"/>
       <c r="K435" s="1"/>
       <c r="L435" s="1"/>
@@ -17149,9 +16277,7 @@
       <c r="F436" s="29"/>
       <c r="G436" s="29"/>
       <c r="H436" s="35"/>
-      <c r="I436" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I436" s="7"/>
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
       <c r="L436" s="1"/>
@@ -17186,9 +16312,7 @@
       <c r="F437" s="29"/>
       <c r="G437" s="29"/>
       <c r="H437" s="34"/>
-      <c r="I437" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I437" s="7"/>
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
       <c r="L437" s="1"/>
@@ -17223,9 +16347,7 @@
       <c r="F438" s="29"/>
       <c r="G438" s="29"/>
       <c r="H438" s="35"/>
-      <c r="I438" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I438" s="7"/>
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
       <c r="L438" s="1"/>
@@ -17260,9 +16382,7 @@
       <c r="F439" s="29"/>
       <c r="G439" s="29"/>
       <c r="H439" s="34"/>
-      <c r="I439" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I439" s="7"/>
       <c r="J439" s="1"/>
       <c r="K439" s="1"/>
       <c r="L439" s="1"/>
@@ -17297,9 +16417,7 @@
       <c r="F440" s="29"/>
       <c r="G440" s="29"/>
       <c r="H440" s="35"/>
-      <c r="I440" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I440" s="7"/>
       <c r="J440" s="1"/>
       <c r="K440" s="1"/>
       <c r="L440" s="1"/>
@@ -17334,9 +16452,7 @@
       <c r="F441" s="29"/>
       <c r="G441" s="29"/>
       <c r="H441" s="34"/>
-      <c r="I441" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I441" s="7"/>
       <c r="J441" s="1"/>
       <c r="K441" s="1"/>
       <c r="L441" s="1"/>
@@ -17371,9 +16487,7 @@
       <c r="F442" s="29"/>
       <c r="G442" s="29"/>
       <c r="H442" s="35"/>
-      <c r="I442" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I442" s="7"/>
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
       <c r="L442" s="1"/>
@@ -17408,9 +16522,7 @@
       <c r="F443" s="29"/>
       <c r="G443" s="29"/>
       <c r="H443" s="34"/>
-      <c r="I443" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I443" s="7"/>
       <c r="J443" s="1"/>
       <c r="K443" s="1"/>
       <c r="L443" s="1"/>
@@ -17445,9 +16557,7 @@
       <c r="F444" s="29"/>
       <c r="G444" s="29"/>
       <c r="H444" s="35"/>
-      <c r="I444" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I444" s="7"/>
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
       <c r="L444" s="1"/>
@@ -17482,9 +16592,7 @@
       <c r="F445" s="29"/>
       <c r="G445" s="29"/>
       <c r="H445" s="34"/>
-      <c r="I445" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I445" s="7"/>
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
       <c r="L445" s="1"/>
@@ -17519,9 +16627,7 @@
       <c r="F446" s="29"/>
       <c r="G446" s="29"/>
       <c r="H446" s="35"/>
-      <c r="I446" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I446" s="7"/>
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
       <c r="L446" s="1"/>
@@ -17556,9 +16662,7 @@
       <c r="F447" s="29"/>
       <c r="G447" s="29"/>
       <c r="H447" s="34"/>
-      <c r="I447" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I447" s="7"/>
       <c r="J447" s="1"/>
       <c r="K447" s="1"/>
       <c r="L447" s="1"/>
@@ -17593,9 +16697,7 @@
       <c r="F448" s="29"/>
       <c r="G448" s="29"/>
       <c r="H448" s="35"/>
-      <c r="I448" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I448" s="7"/>
       <c r="J448" s="1"/>
       <c r="K448" s="1"/>
       <c r="L448" s="1"/>
@@ -17630,9 +16732,7 @@
       <c r="F449" s="29"/>
       <c r="G449" s="29"/>
       <c r="H449" s="34"/>
-      <c r="I449" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I449" s="7"/>
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
       <c r="L449" s="1"/>
@@ -17667,9 +16767,7 @@
       <c r="F450" s="29"/>
       <c r="G450" s="29"/>
       <c r="H450" s="35"/>
-      <c r="I450" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="I450" s="7"/>
       <c r="J450" s="1"/>
       <c r="K450" s="1"/>
       <c r="L450" s="1"/>
